--- a/data/trans_orig/P14C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBAA2E6-6D01-419E-BE77-18C38FBA1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A23BFB1-E018-4153-A2FA-865F1E5CE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D131CB29-040F-45B2-A7A5-AE8F38150CE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{770C999A-31C7-4E48-AEDA-D46BC6BEA40E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
   </si>
@@ -110,13 +110,13 @@
     <t>76,15%</t>
   </si>
   <si>
-    <t>37,97%</t>
+    <t>36,01%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>46,19%</t>
+    <t>50,52%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -125,13 +125,13 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>62,03%</t>
+    <t>63,99%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>53,81%</t>
+    <t>49,48%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -146,43 +146,43 @@
     <t>71,33%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>27,45%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>54,01%</t>
+    <t>51,58%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>72,07%</t>
+    <t>72,55%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>45,99%</t>
+    <t>48,42%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -203,61 +203,61 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>21,01%</t>
+    <t>21,53%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>45,27%</t>
+    <t>58,21%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>78,99%</t>
+    <t>78,47%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>69,85%</t>
+    <t>69,74%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -275,19 +275,19 @@
     <t>63,48%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>26,15%</t>
@@ -299,19 +299,19 @@
     <t>19,15%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>20,15%</t>
@@ -323,100 +323,97 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989C4B8D-777B-4795-9F6E-7FAAD47B8F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0257FEDE-0F95-4975-AE64-84E5EB1E358F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,13 +1974,13 @@
         <v>13103</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -1992,13 +1989,13 @@
         <v>38611</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -2007,13 +2004,13 @@
         <v>51714</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2025,13 @@
         <v>9260</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2043,13 +2040,13 @@
         <v>11291</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2058,13 +2055,13 @@
         <v>20550</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2076,13 @@
         <v>3042</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2094,13 +2091,13 @@
         <v>5830</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2109,13 +2106,13 @@
         <v>8872</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,7 +2168,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A23BFB1-E018-4153-A2FA-865F1E5CE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7C2AF8A-B0C2-4DA4-96EE-EFBBAD81E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{770C999A-31C7-4E48-AEDA-D46BC6BEA40E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C0ECC8D-764C-46A9-97A5-0BCD0B3E7427}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -110,13 +110,13 @@
     <t>76,15%</t>
   </si>
   <si>
-    <t>36,01%</t>
+    <t>38,54%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>50,52%</t>
+    <t>41,35%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -125,13 +125,13 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>63,99%</t>
+    <t>61,46%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>49,48%</t>
+    <t>58,65%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -140,262 +140,259 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>27,45%</t>
+    <t>28,09%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -404,16 +401,16 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>20,82%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -828,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0257FEDE-0F95-4975-AE64-84E5EB1E358F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5660CF-6A84-47DF-863F-FB04A3B56015}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1852,10 +1849,10 @@
         <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1867,13 @@
         <v>2025</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -1885,13 +1882,13 @@
         <v>3947</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -1900,13 +1897,13 @@
         <v>5972</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1971,7 @@
         <v>13103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>100</v>
@@ -2061,7 +2058,7 @@
         <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2073,13 @@
         <v>3042</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2091,13 +2088,13 @@
         <v>5830</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2106,13 +2103,13 @@
         <v>8872</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2165,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
